--- a/Test_Cases.xlsx
+++ b/Test_Cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WHY NOT\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WHY NOT\AppData\Local\Temp\Rar$DIa14824.46601.rartemp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -54,30 +54,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>SC_LOGIN_01</t>
-  </si>
-  <si>
-    <t>SC_REGISTER_02</t>
-  </si>
-  <si>
-    <t>SC_CART_03</t>
-  </si>
-  <si>
-    <t>SC_CHECKOUT_04</t>
-  </si>
-  <si>
-    <t>SC_PROFILE_05</t>
-  </si>
-  <si>
-    <t>SC_SECURITY_06</t>
-  </si>
-  <si>
-    <t>SC_SEARCH_07</t>
-  </si>
-  <si>
-    <t>SC_UI_08</t>
-  </si>
-  <si>
     <t>Login functionality</t>
   </si>
   <si>
@@ -466,6 +442,30 @@
   </si>
   <si>
     <t>Responsive design verified on mobile devices</t>
+  </si>
+  <si>
+    <t>LOGIN_01</t>
+  </si>
+  <si>
+    <t>REGISTER_02</t>
+  </si>
+  <si>
+    <t>CART_03</t>
+  </si>
+  <si>
+    <t>CHECKOUT_04</t>
+  </si>
+  <si>
+    <t>PROFILE_05</t>
+  </si>
+  <si>
+    <t>SECURITY_06</t>
+  </si>
+  <si>
+    <t>SEARCH_07</t>
+  </si>
+  <si>
+    <t>UI_08</t>
   </si>
 </sst>
 </file>
@@ -844,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -901,702 +901,702 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="H12" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="J12" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C16" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="G16" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="C17" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="C18" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="C19" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="C20" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C21" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
